--- a/data/mbc.final.xlsx
+++ b/data/mbc.final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MS data/MBC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MSProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53B71F-764D-B547-AB6C-ED1DA39216F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C81A6E-CA26-3F43-A36E-7B35E7D23B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4100" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,21 +210,12 @@
     <t>irrigation</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>water.content</t>
-  </si>
-  <si>
     <t>vol.water</t>
   </si>
   <si>
@@ -238,6 +229,15 @@
   </si>
   <si>
     <t>NH4</t>
+  </si>
+  <si>
+    <t>totalN</t>
+  </si>
+  <si>
+    <t>Dryland</t>
+  </si>
+  <si>
+    <t>Irrigated</t>
   </si>
 </sst>
 </file>
@@ -273,9 +273,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,28 +583,28 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -622,7 +621,7 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>91.169399999999953</v>
@@ -634,22 +633,23 @@
         <v>0.3</v>
       </c>
       <c r="I2">
-        <v>3.3000000000000002E-2</v>
+        <v>0.17</v>
       </c>
       <c r="J2">
-        <v>0.17</v>
+        <v>20.62</v>
       </c>
       <c r="K2">
-        <v>20.62</v>
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>6.66</v>
       </c>
       <c r="M2">
-        <v>6.66</v>
+        <v>4.32</v>
       </c>
       <c r="N2">
-        <v>4.32</v>
+        <f>L2+M2</f>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>84.657299999999964</v>
@@ -678,22 +678,23 @@
         <v>0.38</v>
       </c>
       <c r="I3">
-        <v>4.3999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J3">
-        <v>0.10100000000000001</v>
+        <v>19.87</v>
       </c>
       <c r="K3">
-        <v>19.87</v>
+        <v>31</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>7.17</v>
       </c>
       <c r="M3">
-        <v>7.17</v>
+        <v>1.47</v>
       </c>
       <c r="N3">
-        <v>1.47</v>
+        <f t="shared" ref="N3:N66" si="0">L3+M3</f>
+        <v>8.64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -710,7 +711,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>52.096800000000044</v>
@@ -722,22 +723,23 @@
         <v>0.39</v>
       </c>
       <c r="I4">
-        <v>2.9000000000000001E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J4">
-        <v>0.11799999999999999</v>
+        <v>20.85</v>
       </c>
       <c r="K4">
-        <v>20.85</v>
+        <v>32</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>2.81</v>
       </c>
       <c r="M4">
-        <v>2.81</v>
+        <v>1.47</v>
       </c>
       <c r="N4">
-        <v>1.47</v>
+        <f t="shared" si="0"/>
+        <v>4.28</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -754,7 +756,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>104.19359999999998</v>
@@ -766,22 +768,23 @@
         <v>0.39</v>
       </c>
       <c r="I5">
-        <v>3.5000000000000003E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="J5">
-        <v>0.16900000000000001</v>
+        <v>20.55</v>
       </c>
       <c r="K5">
-        <v>20.55</v>
+        <v>22</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>6.94</v>
       </c>
       <c r="M5">
-        <v>6.94</v>
+        <v>1.41</v>
       </c>
       <c r="N5">
-        <v>1.41</v>
+        <f t="shared" si="0"/>
+        <v>8.35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -798,7 +801,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>80.315900000000013</v>
@@ -810,22 +813,23 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I6">
-        <v>3.2000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J6">
-        <v>0.106</v>
+        <v>20.97</v>
       </c>
       <c r="K6">
-        <v>20.97</v>
+        <v>33</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <f t="shared" si="0"/>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -842,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>26.048400000000022</v>
@@ -854,22 +858,23 @@
         <v>0.34</v>
       </c>
       <c r="I7">
-        <v>5.0999999999999997E-2</v>
+        <v>0.121</v>
       </c>
       <c r="J7">
-        <v>0.121</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="K7">
-        <v>20.239999999999998</v>
+        <v>24</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>4.45</v>
       </c>
       <c r="M7">
-        <v>4.45</v>
+        <v>1.33</v>
       </c>
       <c r="N7">
-        <v>1.33</v>
+        <f t="shared" si="0"/>
+        <v>5.78</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -886,7 +891,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>41.24330000000004</v>
@@ -898,22 +903,23 @@
         <v>0.34</v>
       </c>
       <c r="I8">
-        <v>3.6999999999999998E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J8">
-        <v>0.10100000000000001</v>
+        <v>20.75</v>
       </c>
       <c r="K8">
-        <v>20.75</v>
+        <v>24</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>5.15</v>
       </c>
       <c r="M8">
-        <v>5.15</v>
+        <v>1.86</v>
       </c>
       <c r="N8">
-        <v>1.86</v>
+        <f t="shared" si="0"/>
+        <v>7.0100000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -930,7 +936,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>58.608900000000048</v>
@@ -942,22 +948,23 @@
         <v>0.34</v>
       </c>
       <c r="I9">
-        <v>0.04</v>
+        <v>0.153</v>
       </c>
       <c r="J9">
-        <v>0.153</v>
+        <v>20.02</v>
       </c>
       <c r="K9">
-        <v>20.02</v>
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>2.57</v>
       </c>
       <c r="M9">
-        <v>2.57</v>
+        <v>1.76</v>
       </c>
       <c r="N9">
-        <v>1.76</v>
+        <f t="shared" si="0"/>
+        <v>4.33</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -974,7 +981,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F10">
         <v>26.048399999999965</v>
@@ -986,22 +993,23 @@
         <v>0.32</v>
       </c>
       <c r="I10">
-        <v>5.6000000000000001E-2</v>
+        <v>0.17</v>
       </c>
       <c r="J10">
-        <v>0.17</v>
+        <v>20.62</v>
       </c>
       <c r="K10">
-        <v>20.62</v>
+        <v>23</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>8.42</v>
       </c>
       <c r="M10">
-        <v>8.42</v>
+        <v>3.9</v>
       </c>
       <c r="N10">
-        <v>3.9</v>
+        <f t="shared" si="0"/>
+        <v>12.32</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1018,7 +1026,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>80.315900000000013</v>
@@ -1030,22 +1038,23 @@
         <v>0.39</v>
       </c>
       <c r="I11">
-        <v>8.4000000000000005E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J11">
-        <v>0.10100000000000001</v>
+        <v>19.87</v>
       </c>
       <c r="K11">
-        <v>19.87</v>
+        <v>31</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="M11">
-        <v>8.5399999999999991</v>
+        <v>2.42</v>
       </c>
       <c r="N11">
-        <v>2.42</v>
+        <f t="shared" si="0"/>
+        <v>10.959999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1062,7 +1071,7 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>56.438199999999988</v>
@@ -1074,22 +1083,23 @@
         <v>0.36</v>
       </c>
       <c r="I12">
-        <v>5.0999999999999997E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J12">
-        <v>0.11799999999999999</v>
+        <v>20.85</v>
       </c>
       <c r="K12">
-        <v>20.85</v>
+        <v>31</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>6.15</v>
       </c>
       <c r="M12">
-        <v>6.15</v>
+        <v>3.04</v>
       </c>
       <c r="N12">
-        <v>3.04</v>
+        <f t="shared" si="0"/>
+        <v>9.1900000000000013</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1106,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>158.46110000000002</v>
@@ -1118,22 +1128,23 @@
         <v>0.32</v>
       </c>
       <c r="I13">
-        <v>7.9000000000000001E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="J13">
-        <v>0.16900000000000001</v>
+        <v>20.55</v>
       </c>
       <c r="K13">
-        <v>20.55</v>
+        <v>20</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>8.15</v>
       </c>
       <c r="M13">
-        <v>8.15</v>
+        <v>2.44</v>
       </c>
       <c r="N13">
-        <v>2.44</v>
+        <f t="shared" si="0"/>
+        <v>10.59</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1150,7 +1161,7 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>34.731199999999966</v>
@@ -1162,22 +1173,23 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I14">
-        <v>5.6000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J14">
-        <v>0.106</v>
+        <v>20.97</v>
       </c>
       <c r="K14">
-        <v>20.97</v>
+        <v>32</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M14">
-        <v>4.9000000000000004</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="N14">
-        <v>2.5099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.41</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1194,7 +1206,7 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>49.926100000000048</v>
@@ -1206,22 +1218,23 @@
         <v>0.26</v>
       </c>
       <c r="I15">
-        <v>8.4000000000000005E-2</v>
+        <v>0.121</v>
       </c>
       <c r="J15">
-        <v>0.121</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="K15">
-        <v>20.239999999999998</v>
+        <v>23</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M15">
-        <v>8.2899999999999991</v>
+        <v>2.14</v>
       </c>
       <c r="N15">
-        <v>2.14</v>
+        <f t="shared" si="0"/>
+        <v>10.43</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1238,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>99.852200000000039</v>
@@ -1250,22 +1263,23 @@
         <v>0.34</v>
       </c>
       <c r="I16">
-        <v>5.2999999999999999E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J16">
-        <v>0.10100000000000001</v>
+        <v>20.75</v>
       </c>
       <c r="K16">
-        <v>20.75</v>
+        <v>21</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>5.49</v>
       </c>
       <c r="M16">
-        <v>5.49</v>
+        <v>2.08</v>
       </c>
       <c r="N16">
-        <v>2.08</v>
+        <f t="shared" si="0"/>
+        <v>7.57</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1282,7 +1296,7 @@
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>91.169399999999953</v>
@@ -1294,22 +1308,23 @@
         <v>0.36</v>
       </c>
       <c r="I17">
-        <v>7.1999999999999995E-2</v>
+        <v>0.153</v>
       </c>
       <c r="J17">
-        <v>0.153</v>
+        <v>20.02</v>
       </c>
       <c r="K17">
-        <v>20.02</v>
+        <v>28</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>7.38</v>
       </c>
       <c r="M17">
-        <v>7.38</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <f t="shared" si="0"/>
+        <v>9.48</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1326,7 +1341,7 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>141.09550000000002</v>
@@ -1338,22 +1353,23 @@
         <v>0.46</v>
       </c>
       <c r="I18">
-        <v>3.3000000000000002E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J18">
-        <v>0.16800000000000001</v>
+        <v>21.16</v>
       </c>
       <c r="K18">
-        <v>21.16</v>
+        <v>33</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>7.32</v>
       </c>
       <c r="M18">
-        <v>7.32</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="N18">
-        <v>2.5499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>9.870000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1370,7 +1386,7 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>75.974499999999949</v>
@@ -1382,22 +1398,23 @@
         <v>0.44</v>
       </c>
       <c r="I19">
-        <v>4.4999999999999998E-2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J19">
-        <v>0.20100000000000001</v>
+        <v>19.61</v>
       </c>
       <c r="K19">
-        <v>19.61</v>
+        <v>34</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>6.89</v>
       </c>
       <c r="M19">
-        <v>6.89</v>
+        <v>2.31</v>
       </c>
       <c r="N19">
-        <v>2.31</v>
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1414,7 +1431,7 @@
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>39.072600000000037</v>
@@ -1426,22 +1443,23 @@
         <v>0.41</v>
       </c>
       <c r="I20">
-        <v>0.04</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J20">
-        <v>0.13700000000000001</v>
+        <v>21.01</v>
       </c>
       <c r="K20">
-        <v>21.01</v>
+        <v>32</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>3.29</v>
       </c>
       <c r="M20">
-        <v>3.29</v>
+        <v>2.23</v>
       </c>
       <c r="N20">
-        <v>2.23</v>
+        <f t="shared" si="0"/>
+        <v>5.52</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1458,7 +1476,7 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>130.24199999999999</v>
@@ -1470,22 +1488,23 @@
         <v>0.51</v>
       </c>
       <c r="I21">
-        <v>4.7E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J21">
-        <v>8.8999999999999996E-2</v>
+        <v>20.86</v>
       </c>
       <c r="K21">
-        <v>20.86</v>
+        <v>37</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="M21">
-        <v>9.8699999999999992</v>
+        <v>2.66</v>
       </c>
       <c r="N21">
-        <v>2.66</v>
+        <f t="shared" si="0"/>
+        <v>12.53</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1502,7 +1521,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>80.315899999999942</v>
@@ -1514,22 +1533,23 @@
         <v>0.46</v>
       </c>
       <c r="I22">
-        <v>3.2000000000000001E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J22">
-        <v>0.16800000000000001</v>
+        <v>21.16</v>
       </c>
       <c r="K22">
-        <v>21.16</v>
+        <v>36</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>2.57</v>
       </c>
       <c r="M22">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="N22">
-        <v>2.23</v>
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1546,7 +1566,7 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>41.243299999999913</v>
@@ -1558,22 +1578,23 @@
         <v>0.45</v>
       </c>
       <c r="I23">
-        <v>6.4000000000000001E-2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J23">
-        <v>0.20100000000000001</v>
+        <v>19.61</v>
       </c>
       <c r="K23">
-        <v>19.61</v>
+        <v>32</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>3.83</v>
       </c>
       <c r="M23">
-        <v>3.83</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>5.83</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1590,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>45.58469999999992</v>
@@ -1602,22 +1623,23 @@
         <v>0.35</v>
       </c>
       <c r="I24">
-        <v>3.7999999999999999E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J24">
-        <v>0.13700000000000001</v>
+        <v>21.01</v>
       </c>
       <c r="K24">
-        <v>21.01</v>
+        <v>28</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>6.82</v>
       </c>
       <c r="M24">
-        <v>6.82</v>
+        <v>3.22</v>
       </c>
       <c r="N24">
-        <v>3.22</v>
+        <f t="shared" si="0"/>
+        <v>10.040000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1634,7 +1656,7 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>36.901899999999912</v>
@@ -1646,22 +1668,23 @@
         <v>0.41</v>
       </c>
       <c r="I25">
-        <v>0.05</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J25">
-        <v>8.8999999999999996E-2</v>
+        <v>20.86</v>
       </c>
       <c r="K25">
-        <v>20.86</v>
+        <v>33</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>6.49</v>
       </c>
       <c r="M25">
-        <v>6.49</v>
+        <v>2.76</v>
       </c>
       <c r="N25">
-        <v>2.76</v>
+        <f t="shared" si="0"/>
+        <v>9.25</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1678,7 +1701,7 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>117.21780000000004</v>
@@ -1690,22 +1713,23 @@
         <v>0.38</v>
       </c>
       <c r="I26">
-        <v>5.5E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J26">
-        <v>0.16800000000000001</v>
+        <v>21.16</v>
       </c>
       <c r="K26">
-        <v>21.16</v>
+        <v>29</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>4.32</v>
       </c>
       <c r="M26">
-        <v>4.32</v>
+        <v>2.15</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <f t="shared" si="0"/>
+        <v>6.4700000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1722,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>182.33879999999999</v>
@@ -1734,22 +1758,23 @@
         <v>0.4</v>
       </c>
       <c r="I27">
-        <v>8.2000000000000003E-2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J27">
-        <v>0.20100000000000001</v>
+        <v>19.61</v>
       </c>
       <c r="K27">
-        <v>19.61</v>
+        <v>29</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>10.45</v>
       </c>
       <c r="M27">
-        <v>10.45</v>
+        <v>2.14</v>
       </c>
       <c r="N27">
-        <v>2.14</v>
+        <f t="shared" si="0"/>
+        <v>12.59</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1766,7 +1791,7 @@
         <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F28">
         <v>86.828000000000017</v>
@@ -1778,22 +1803,23 @@
         <v>0.4</v>
       </c>
       <c r="I28">
-        <v>5.8999999999999997E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J28">
-        <v>0.13700000000000001</v>
+        <v>21.01</v>
       </c>
       <c r="K28">
-        <v>21.01</v>
+        <v>30</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="M28">
-        <v>4.2300000000000004</v>
+        <v>2.13</v>
       </c>
       <c r="N28">
-        <v>2.13</v>
+        <f t="shared" si="0"/>
+        <v>6.36</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1810,7 +1836,7 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>151.94900000000001</v>
@@ -1822,22 +1848,23 @@
         <v>0.37</v>
       </c>
       <c r="I29">
-        <v>7.8E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J29">
-        <v>8.8999999999999996E-2</v>
+        <v>20.86</v>
       </c>
       <c r="K29">
-        <v>20.86</v>
+        <v>32</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>11.25</v>
       </c>
       <c r="M29">
-        <v>11.25</v>
+        <v>1.74</v>
       </c>
       <c r="N29">
-        <v>1.74</v>
+        <f t="shared" si="0"/>
+        <v>12.99</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1854,7 +1881,7 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>73.803800000000066</v>
@@ -1866,22 +1893,23 @@
         <v>0.45</v>
       </c>
       <c r="I30">
-        <v>4.1000000000000002E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J30">
-        <v>0.16800000000000001</v>
+        <v>21.16</v>
       </c>
       <c r="K30">
-        <v>21.16</v>
+        <v>36</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>3.76</v>
       </c>
       <c r="M30">
-        <v>3.76</v>
+        <v>2.95</v>
       </c>
       <c r="N30">
-        <v>2.95</v>
+        <f t="shared" si="0"/>
+        <v>6.71</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1898,7 +1926,7 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>86.828000000000074</v>
@@ -1910,22 +1938,23 @@
         <v>0.48</v>
       </c>
       <c r="I31">
-        <v>0.06</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J31">
-        <v>0.20100000000000001</v>
+        <v>19.61</v>
       </c>
       <c r="K31">
-        <v>19.61</v>
+        <v>32</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>4.32</v>
       </c>
       <c r="M31">
-        <v>4.32</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N31">
-        <v>2.2200000000000002</v>
+        <f t="shared" si="0"/>
+        <v>6.5400000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1942,7 +1971,7 @@
         <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>43.414000000000037</v>
@@ -1954,22 +1983,23 @@
         <v>0.42</v>
       </c>
       <c r="I32">
-        <v>0.04</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J32">
-        <v>0.13700000000000001</v>
+        <v>21.01</v>
       </c>
       <c r="K32">
-        <v>21.01</v>
+        <v>36</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>6.97</v>
       </c>
       <c r="M32">
-        <v>6.97</v>
+        <v>2.64</v>
       </c>
       <c r="N32">
-        <v>2.64</v>
+        <f t="shared" si="0"/>
+        <v>9.61</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1986,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F33">
         <v>128.07130000000001</v>
@@ -1998,66 +2028,68 @@
         <v>0.44</v>
       </c>
       <c r="I33">
-        <v>6.3E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J33">
-        <v>8.8999999999999996E-2</v>
+        <v>20.86</v>
       </c>
       <c r="K33">
-        <v>20.86</v>
+        <v>29</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>6.99</v>
       </c>
       <c r="M33">
-        <v>6.99</v>
+        <v>2.25</v>
       </c>
       <c r="N33">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+        <f t="shared" si="0"/>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34">
         <v>49.926100000000048</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34">
         <v>0.45</v>
       </c>
-      <c r="I34" s="1">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34">
         <v>0.183</v>
       </c>
-      <c r="K34" s="1">
+      <c r="J34">
         <v>20.58</v>
       </c>
-      <c r="L34" s="1">
+      <c r="K34">
         <v>48</v>
       </c>
-      <c r="M34" s="1">
+      <c r="L34">
         <v>9.83</v>
       </c>
-      <c r="N34" s="1">
+      <c r="M34">
         <v>9.7899999999999991</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>19.619999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2074,7 +2106,7 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>75.974500000000063</v>
@@ -2086,22 +2118,23 @@
         <v>0.33</v>
       </c>
       <c r="I35">
-        <v>5.0999999999999997E-2</v>
+        <v>0.155</v>
       </c>
       <c r="J35">
-        <v>0.155</v>
+        <v>19.48</v>
       </c>
       <c r="K35">
-        <v>19.48</v>
+        <v>42</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>6.42</v>
       </c>
       <c r="M35">
-        <v>6.42</v>
+        <v>2.58</v>
       </c>
       <c r="N35">
-        <v>2.58</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2118,7 +2151,7 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <v>52.096800000000044</v>
@@ -2130,22 +2163,23 @@
         <v>0.27</v>
       </c>
       <c r="I36">
-        <v>3.5000000000000003E-2</v>
+        <v>0.154</v>
       </c>
       <c r="J36">
-        <v>0.154</v>
+        <v>20.75</v>
       </c>
       <c r="K36">
-        <v>20.75</v>
+        <v>37</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>3.81</v>
       </c>
       <c r="M36">
-        <v>3.81</v>
+        <v>2.14</v>
       </c>
       <c r="N36">
-        <v>2.14</v>
+        <f t="shared" si="0"/>
+        <v>5.95</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2162,7 +2196,7 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>256.14260000000002</v>
@@ -2174,22 +2208,23 @@
         <v>0.53</v>
       </c>
       <c r="I37">
-        <v>6.3E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J37">
-        <v>0.16700000000000001</v>
+        <v>20.32</v>
       </c>
       <c r="K37">
-        <v>20.32</v>
+        <v>60</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>19.46</v>
       </c>
       <c r="M37">
-        <v>19.46</v>
+        <v>2.58</v>
       </c>
       <c r="N37">
-        <v>2.58</v>
+        <f t="shared" si="0"/>
+        <v>22.04</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2206,7 +2241,7 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>30.389800000000029</v>
@@ -2218,22 +2253,23 @@
         <v>0.39</v>
       </c>
       <c r="I38">
-        <v>3.4000000000000002E-2</v>
+        <v>0.16</v>
       </c>
       <c r="J38">
-        <v>0.16</v>
+        <v>20.36</v>
       </c>
       <c r="K38">
-        <v>20.36</v>
+        <v>36</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>2.66</v>
       </c>
       <c r="M38">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="N38">
-        <v>2.63</v>
+        <f t="shared" si="0"/>
+        <v>5.29</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2250,7 +2286,7 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <v>93.340099999999964</v>
@@ -2262,22 +2298,23 @@
         <v>0.51</v>
       </c>
       <c r="I39">
-        <v>4.2999999999999997E-2</v>
+        <v>0.123</v>
       </c>
       <c r="J39">
-        <v>0.123</v>
+        <v>20.32</v>
       </c>
       <c r="K39">
-        <v>20.32</v>
+        <v>44</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>4.51</v>
       </c>
       <c r="M39">
-        <v>4.51</v>
+        <v>2.78</v>
       </c>
       <c r="N39">
-        <v>2.78</v>
+        <f t="shared" si="0"/>
+        <v>7.2899999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2294,7 +2331,7 @@
         <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>130.24199999999999</v>
@@ -2306,22 +2343,23 @@
         <v>0.26</v>
       </c>
       <c r="I40">
-        <v>3.9E-2</v>
+        <v>0.127</v>
       </c>
       <c r="J40">
-        <v>0.127</v>
+        <v>21.92</v>
       </c>
       <c r="K40">
-        <v>21.92</v>
+        <v>51</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>4.7</v>
       </c>
       <c r="M40">
-        <v>4.7</v>
+        <v>2.56</v>
       </c>
       <c r="N40">
-        <v>2.56</v>
+        <f t="shared" si="0"/>
+        <v>7.26</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2338,7 +2376,7 @@
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>123.72989999999999</v>
@@ -2350,22 +2388,23 @@
         <v>0.36</v>
       </c>
       <c r="I41">
-        <v>4.9000000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J41">
-        <v>0.10100000000000001</v>
+        <v>20.07</v>
       </c>
       <c r="K41">
-        <v>20.07</v>
+        <v>36</v>
       </c>
       <c r="L41">
-        <v>36</v>
+        <v>4.84</v>
       </c>
       <c r="M41">
-        <v>4.84</v>
+        <v>2.35</v>
       </c>
       <c r="N41">
-        <v>2.35</v>
+        <f t="shared" si="0"/>
+        <v>7.1899999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2382,7 +2421,7 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>30.389800000000029</v>
@@ -2394,22 +2433,23 @@
         <v>0.45</v>
       </c>
       <c r="I42">
-        <v>3.9E-2</v>
+        <v>0.183</v>
       </c>
       <c r="J42">
-        <v>0.183</v>
+        <v>20.58</v>
       </c>
       <c r="K42">
-        <v>20.58</v>
+        <v>48</v>
       </c>
       <c r="L42">
-        <v>48</v>
+        <v>9.83</v>
       </c>
       <c r="M42">
-        <v>9.83</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="N42">
-        <v>9.7899999999999991</v>
+        <f t="shared" si="0"/>
+        <v>19.619999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2426,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>56.438199999999931</v>
@@ -2438,22 +2478,23 @@
         <v>0.46</v>
       </c>
       <c r="I43">
-        <v>3.6999999999999998E-2</v>
+        <v>0.155</v>
       </c>
       <c r="J43">
-        <v>0.155</v>
+        <v>19.48</v>
       </c>
       <c r="K43">
-        <v>19.48</v>
+        <v>37</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>7.4</v>
       </c>
       <c r="M43">
-        <v>7.4</v>
+        <v>4.18</v>
       </c>
       <c r="N43">
-        <v>4.18</v>
+        <f t="shared" si="0"/>
+        <v>11.58</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2470,7 +2511,7 @@
         <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <v>65.120999999999938</v>
@@ -2482,22 +2523,23 @@
         <v>0.42</v>
       </c>
       <c r="I44">
-        <v>3.7999999999999999E-2</v>
+        <v>0.154</v>
       </c>
       <c r="J44">
-        <v>0.154</v>
+        <v>20.75</v>
       </c>
       <c r="K44">
-        <v>20.75</v>
+        <v>42</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M44">
-        <v>4.8499999999999996</v>
+        <v>3.11</v>
       </c>
       <c r="N44">
-        <v>3.11</v>
+        <f t="shared" si="0"/>
+        <v>7.9599999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2514,7 +2556,7 @@
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>123.72989999999999</v>
@@ -2526,22 +2568,23 @@
         <v>0.44</v>
       </c>
       <c r="I45">
-        <v>5.8000000000000003E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J45">
-        <v>0.16700000000000001</v>
+        <v>20.32</v>
       </c>
       <c r="K45">
-        <v>20.32</v>
+        <v>48</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>10.14</v>
       </c>
       <c r="M45">
-        <v>10.14</v>
+        <v>3.38</v>
       </c>
       <c r="N45">
-        <v>3.38</v>
+        <f t="shared" si="0"/>
+        <v>13.52</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2558,7 +2601,7 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>151.94900000000001</v>
@@ -2570,22 +2613,23 @@
         <v>0.36</v>
       </c>
       <c r="I46">
-        <v>4.3999999999999997E-2</v>
+        <v>0.16</v>
       </c>
       <c r="J46">
-        <v>0.16</v>
+        <v>20.36</v>
       </c>
       <c r="K46">
-        <v>20.36</v>
+        <v>34</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>3.19</v>
       </c>
       <c r="M46">
-        <v>3.19</v>
+        <v>2.64</v>
       </c>
       <c r="N46">
-        <v>2.64</v>
+        <f t="shared" si="0"/>
+        <v>5.83</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2602,7 +2646,7 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>65.120999999999938</v>
@@ -2614,22 +2658,23 @@
         <v>0.46</v>
       </c>
       <c r="I47">
-        <v>5.7000000000000002E-2</v>
+        <v>0.123</v>
       </c>
       <c r="J47">
-        <v>0.123</v>
+        <v>20.32</v>
       </c>
       <c r="K47">
-        <v>20.32</v>
+        <v>39</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>4.62</v>
       </c>
       <c r="M47">
-        <v>4.62</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N47">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>6.92</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2646,7 +2691,7 @@
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F48">
         <v>54.267499999999927</v>
@@ -2658,22 +2703,23 @@
         <v>0.45</v>
       </c>
       <c r="I48">
-        <v>3.9E-2</v>
+        <v>0.127</v>
       </c>
       <c r="J48">
-        <v>0.127</v>
+        <v>21.92</v>
       </c>
       <c r="K48">
-        <v>21.92</v>
+        <v>50</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>5.21</v>
       </c>
       <c r="M48">
-        <v>5.21</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="N48">
-        <v>2.4900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>7.7</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2690,7 +2736,7 @@
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>134.58339999999998</v>
@@ -2702,22 +2748,23 @@
         <v>0.36</v>
       </c>
       <c r="I49">
-        <v>5.2999999999999999E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J49">
-        <v>0.10100000000000001</v>
+        <v>20.07</v>
       </c>
       <c r="K49">
-        <v>20.07</v>
+        <v>32</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>4.68</v>
       </c>
       <c r="M49">
-        <v>4.68</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="N49">
-        <v>2.2799999999999998</v>
+        <f t="shared" si="0"/>
+        <v>6.9599999999999991</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2734,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>91.169400000000095</v>
@@ -2746,22 +2793,23 @@
         <v>0.79</v>
       </c>
       <c r="I50">
-        <v>2.8000000000000001E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J50">
-        <v>0.11600000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="K50">
-        <v>19.53</v>
+        <v>23</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>4.34</v>
       </c>
       <c r="M50">
-        <v>4.34</v>
+        <v>2.13</v>
       </c>
       <c r="N50">
-        <v>2.13</v>
+        <f t="shared" si="0"/>
+        <v>6.47</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2778,7 +2826,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>88.998700000000085</v>
@@ -2790,22 +2838,23 @@
         <v>0.85</v>
       </c>
       <c r="I51">
-        <v>3.9E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="J51">
-        <v>0.17799999999999999</v>
+        <v>19.25</v>
       </c>
       <c r="K51">
-        <v>19.25</v>
+        <v>20</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="N51">
-        <v>1.62</v>
+        <f t="shared" si="0"/>
+        <v>4.87</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2822,7 +2871,7 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>121.55919999999998</v>
@@ -2834,22 +2883,23 @@
         <v>0.85</v>
       </c>
       <c r="I52">
-        <v>0.03</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J52">
-        <v>0.16200000000000001</v>
+        <v>20.58</v>
       </c>
       <c r="K52">
-        <v>20.58</v>
+        <v>22</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M52">
-        <v>2.2000000000000002</v>
+        <v>0.91</v>
       </c>
       <c r="N52">
-        <v>0.91</v>
+        <f t="shared" si="0"/>
+        <v>3.1100000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -2866,7 +2916,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F53">
         <v>197.53369999999993</v>
@@ -2878,22 +2928,23 @@
         <v>0.84</v>
       </c>
       <c r="I53">
-        <v>3.5999999999999997E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J53">
-        <v>0.14899999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="K53">
-        <v>19.63</v>
+        <v>27</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>7.48</v>
       </c>
       <c r="M53">
-        <v>7.48</v>
+        <v>2.69</v>
       </c>
       <c r="N53">
-        <v>2.69</v>
+        <f t="shared" si="0"/>
+        <v>10.17</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -2910,7 +2961,7 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F54">
         <v>67.291700000000063</v>
@@ -2922,22 +2973,23 @@
         <v>0.8</v>
       </c>
       <c r="I54">
-        <v>3.3000000000000002E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J54">
-        <v>0.16700000000000001</v>
+        <v>20.56</v>
       </c>
       <c r="K54">
-        <v>20.56</v>
+        <v>24</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>2.14</v>
       </c>
       <c r="M54">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="N54">
-        <v>1.38</v>
+        <f t="shared" si="0"/>
+        <v>3.52</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -2954,7 +3006,7 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F55">
         <v>121.55919999999998</v>
@@ -2966,22 +3018,23 @@
         <v>1.59</v>
       </c>
       <c r="I55">
-        <v>4.1000000000000002E-2</v>
+        <v>0.124</v>
       </c>
       <c r="J55">
-        <v>0.124</v>
+        <v>19.64</v>
       </c>
       <c r="K55">
-        <v>19.64</v>
+        <v>31</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>6.66</v>
       </c>
       <c r="M55">
-        <v>6.66</v>
+        <v>4.91</v>
       </c>
       <c r="N55">
-        <v>4.91</v>
+        <f t="shared" si="0"/>
+        <v>11.57</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -2998,7 +3051,7 @@
         <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <v>162.80249999999995</v>
@@ -3010,22 +3063,23 @@
         <v>0.77</v>
       </c>
       <c r="I56">
-        <v>2.9000000000000001E-2</v>
+        <v>0.124</v>
       </c>
       <c r="J56">
-        <v>0.124</v>
+        <v>20.03</v>
       </c>
       <c r="K56">
-        <v>20.03</v>
+        <v>19</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M56">
-        <v>4.4000000000000004</v>
+        <v>1.52</v>
       </c>
       <c r="N56">
-        <v>1.52</v>
+        <f t="shared" si="0"/>
+        <v>5.92</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3042,7 +3096,7 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F57">
         <v>301.72730000000001</v>
@@ -3054,22 +3108,23 @@
         <v>1.07</v>
       </c>
       <c r="I57">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J57">
-        <v>0.16700000000000001</v>
+        <v>19.63</v>
       </c>
       <c r="K57">
-        <v>19.63</v>
+        <v>28</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>2.02</v>
       </c>
       <c r="N57">
-        <v>2.02</v>
+        <f t="shared" si="0"/>
+        <v>11.02</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3086,7 +3141,7 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F58">
         <v>26.048400000000022</v>
@@ -3098,22 +3153,23 @@
         <v>0.91</v>
       </c>
       <c r="I58">
-        <v>3.4000000000000002E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J58">
-        <v>0.11600000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="K58">
-        <v>19.53</v>
+        <v>18</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>2.92</v>
       </c>
       <c r="M58">
-        <v>2.92</v>
+        <v>1.37</v>
       </c>
       <c r="N58">
-        <v>1.37</v>
+        <f t="shared" si="0"/>
+        <v>4.29</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3130,7 +3186,7 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>65.121000000000052</v>
@@ -3142,22 +3198,23 @@
         <v>0.8</v>
       </c>
       <c r="I59">
-        <v>3.5999999999999997E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="J59">
-        <v>0.17799999999999999</v>
+        <v>19.25</v>
       </c>
       <c r="K59">
-        <v>19.25</v>
+        <v>20</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>5.88</v>
       </c>
       <c r="M59">
-        <v>5.88</v>
+        <v>2.08</v>
       </c>
       <c r="N59">
-        <v>2.08</v>
+        <f t="shared" si="0"/>
+        <v>7.96</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3174,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F60">
         <v>71.63310000000007</v>
@@ -3186,22 +3243,23 @@
         <v>0.65</v>
       </c>
       <c r="I60">
-        <v>3.1E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J60">
-        <v>0.16200000000000001</v>
+        <v>20.58</v>
       </c>
       <c r="K60">
-        <v>20.58</v>
+        <v>22</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="M60">
-        <v>4.6900000000000004</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7.69</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3218,7 +3276,7 @@
         <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F61">
         <v>86.828000000000074</v>
@@ -3230,22 +3288,23 @@
         <v>0.4</v>
       </c>
       <c r="I61">
-        <v>4.7E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J61">
-        <v>0.14899999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="K61">
-        <v>19.63</v>
+        <v>25</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>8.01</v>
       </c>
       <c r="M61">
-        <v>8.01</v>
+        <v>4.79</v>
       </c>
       <c r="N61">
-        <v>4.79</v>
+        <f t="shared" si="0"/>
+        <v>12.8</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3262,7 +3321,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F62">
         <v>117.21779999999998</v>
@@ -3274,22 +3333,23 @@
         <v>0.35</v>
       </c>
       <c r="I62">
-        <v>4.1000000000000002E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J62">
-        <v>0.16700000000000001</v>
+        <v>20.56</v>
       </c>
       <c r="K62">
-        <v>20.56</v>
+        <v>17</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>1.81</v>
       </c>
       <c r="M62">
-        <v>1.81</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N62">
-        <v>2.2200000000000002</v>
+        <f t="shared" si="0"/>
+        <v>4.03</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3306,7 +3366,7 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F63">
         <v>112.87639999999998</v>
@@ -3318,22 +3378,23 @@
         <v>0.37</v>
       </c>
       <c r="I63">
-        <v>4.3999999999999997E-2</v>
+        <v>0.124</v>
       </c>
       <c r="J63">
-        <v>0.124</v>
+        <v>19.64</v>
       </c>
       <c r="K63">
-        <v>19.64</v>
+        <v>22</v>
       </c>
       <c r="L63">
-        <v>22</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M63">
-        <v>5.0199999999999996</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N63">
-        <v>2.0499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>7.0699999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3350,7 +3411,7 @@
         <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F64">
         <v>177.99740000000006</v>
@@ -3362,22 +3423,23 @@
         <v>0.83</v>
       </c>
       <c r="I64">
-        <v>4.5999999999999999E-2</v>
+        <v>0.124</v>
       </c>
       <c r="J64">
-        <v>0.124</v>
+        <v>20.03</v>
       </c>
       <c r="K64">
-        <v>20.03</v>
+        <v>18</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>2.89</v>
       </c>
       <c r="M64">
-        <v>2.89</v>
+        <v>1.47</v>
       </c>
       <c r="N64">
-        <v>1.47</v>
+        <f t="shared" si="0"/>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3394,7 +3456,7 @@
         <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F65">
         <v>88.998700000000085</v>
@@ -3406,22 +3468,23 @@
         <v>0.39</v>
       </c>
       <c r="I65">
-        <v>5.0999999999999997E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="J65">
-        <v>0.16700000000000001</v>
+        <v>19.63</v>
       </c>
       <c r="K65">
-        <v>19.63</v>
+        <v>17</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>4.45</v>
       </c>
       <c r="M65">
-        <v>4.45</v>
+        <v>2.06</v>
       </c>
       <c r="N65">
-        <v>2.06</v>
+        <f t="shared" si="0"/>
+        <v>6.51</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3501,7 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F66">
         <v>117.21779999999998</v>
@@ -3450,22 +3513,23 @@
         <v>0.92</v>
       </c>
       <c r="I66">
-        <v>3.5000000000000003E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J66">
-        <v>0.17299999999999999</v>
+        <v>19.03</v>
       </c>
       <c r="K66">
-        <v>19.03</v>
+        <v>27</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>3.41</v>
       </c>
       <c r="M66">
-        <v>3.41</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="N66">
-        <v>2.0099999999999998</v>
+        <f t="shared" si="0"/>
+        <v>5.42</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3482,7 +3546,7 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F67">
         <v>125.9006</v>
@@ -3494,22 +3558,23 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>6.2E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J67">
-        <v>0.11799999999999999</v>
+        <v>19.05</v>
       </c>
       <c r="K67">
-        <v>19.05</v>
+        <v>31</v>
       </c>
       <c r="L67">
-        <v>31</v>
+        <v>5.96</v>
       </c>
       <c r="M67">
-        <v>5.96</v>
+        <v>2.09</v>
       </c>
       <c r="N67">
-        <v>2.09</v>
+        <f t="shared" ref="N67:N97" si="1">L67+M67</f>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3526,7 +3591,7 @@
         <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F68">
         <v>56.438199999999931</v>
@@ -3538,22 +3603,23 @@
         <v>0.41</v>
       </c>
       <c r="I68">
-        <v>3.4000000000000002E-2</v>
+        <v>0.105</v>
       </c>
       <c r="J68">
-        <v>0.105</v>
+        <v>19.89</v>
       </c>
       <c r="K68">
-        <v>19.89</v>
+        <v>28</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>5.53</v>
       </c>
       <c r="M68">
-        <v>5.53</v>
+        <v>3.22</v>
       </c>
       <c r="N68">
-        <v>3.22</v>
+        <f t="shared" si="1"/>
+        <v>8.75</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3570,7 +3636,7 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F69">
         <v>138.9248</v>
@@ -3582,22 +3648,23 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I69">
-        <v>5.8999999999999997E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J69">
-        <v>0.16500000000000001</v>
+        <v>18.84</v>
       </c>
       <c r="K69">
-        <v>18.84</v>
+        <v>24</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>8.27</v>
       </c>
       <c r="M69">
-        <v>8.27</v>
+        <v>2.64</v>
       </c>
       <c r="N69">
-        <v>2.64</v>
+        <f t="shared" si="1"/>
+        <v>10.91</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3614,7 +3681,7 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F70">
         <v>110.70569999999996</v>
@@ -3626,22 +3693,23 @@
         <v>0.4</v>
       </c>
       <c r="I70">
-        <v>3.7999999999999999E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J70">
-        <v>0.11700000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="K70">
-        <v>19.53</v>
+        <v>23</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>1.61</v>
       </c>
       <c r="M70">
-        <v>1.61</v>
+        <v>2.13</v>
       </c>
       <c r="N70">
-        <v>2.13</v>
+        <f t="shared" si="1"/>
+        <v>3.74</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3658,7 +3726,7 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F71">
         <v>136.68020000000001</v>
@@ -3670,22 +3738,23 @@
         <v>0.41</v>
       </c>
       <c r="I71">
-        <v>5.1999999999999998E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J71">
-        <v>0.16300000000000001</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="K71">
-        <v>18.920000000000002</v>
+        <v>28</v>
       </c>
       <c r="L71">
-        <v>28</v>
+        <v>5.59</v>
       </c>
       <c r="M71">
-        <v>5.59</v>
+        <v>3.22</v>
       </c>
       <c r="N71">
-        <v>3.22</v>
+        <f t="shared" si="1"/>
+        <v>8.81</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3702,7 +3771,7 @@
         <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F72">
         <v>69.462400000000059</v>
@@ -3714,22 +3783,23 @@
         <v>0.38</v>
       </c>
       <c r="I72">
-        <v>4.3999999999999997E-2</v>
+        <v>0.127</v>
       </c>
       <c r="J72">
-        <v>0.127</v>
+        <v>19.78</v>
       </c>
       <c r="K72">
-        <v>19.78</v>
+        <v>26</v>
       </c>
       <c r="L72">
-        <v>26</v>
+        <v>3.53</v>
       </c>
       <c r="M72">
-        <v>3.53</v>
+        <v>2.81</v>
       </c>
       <c r="N72">
-        <v>2.81</v>
+        <f t="shared" si="1"/>
+        <v>6.34</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -3746,7 +3816,7 @@
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F73">
         <v>65.120999999999938</v>
@@ -3758,22 +3828,23 @@
         <v>0.53</v>
       </c>
       <c r="I73">
-        <v>5.3999999999999999E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="J73">
-        <v>0.14699999999999999</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="K73">
-        <v>19.149999999999999</v>
+        <v>24</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>4.17</v>
       </c>
       <c r="M73">
-        <v>4.17</v>
+        <v>3.54</v>
       </c>
       <c r="N73">
-        <v>3.54</v>
+        <f t="shared" si="1"/>
+        <v>7.71</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3790,7 +3861,7 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F74">
         <v>88.998700000000085</v>
@@ -3802,22 +3873,23 @@
         <v>0.45</v>
       </c>
       <c r="I74">
-        <v>4.5999999999999999E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J74">
-        <v>0.17299999999999999</v>
+        <v>19.03</v>
       </c>
       <c r="K74">
-        <v>19.03</v>
+        <v>20</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>2.7</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>1.63</v>
       </c>
       <c r="N74">
-        <v>1.63</v>
+        <f t="shared" si="1"/>
+        <v>4.33</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3834,7 +3906,7 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F75">
         <v>104.19360000000003</v>
@@ -3846,22 +3918,23 @@
         <v>0.46</v>
       </c>
       <c r="I75">
-        <v>5.0999999999999997E-2</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J75">
-        <v>0.11799999999999999</v>
+        <v>19.05</v>
       </c>
       <c r="K75">
-        <v>19.05</v>
+        <v>19</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>4.58</v>
       </c>
       <c r="M75">
-        <v>4.58</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <f t="shared" si="1"/>
+        <v>6.38</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3878,7 +3951,7 @@
         <v>53</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <v>45.584699999999977</v>
@@ -3890,22 +3963,23 @@
         <v>0.39</v>
       </c>
       <c r="I76">
-        <v>3.9E-2</v>
+        <v>0.105</v>
       </c>
       <c r="J76">
-        <v>0.105</v>
+        <v>19.89</v>
       </c>
       <c r="K76">
-        <v>19.89</v>
+        <v>21</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M76">
-        <v>2.0299999999999998</v>
+        <v>1.39</v>
       </c>
       <c r="N76">
-        <v>1.39</v>
+        <f t="shared" si="1"/>
+        <v>3.42</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3922,7 +3996,7 @@
         <v>52</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F77">
         <v>140.16810000000001</v>
@@ -3934,22 +4008,23 @@
         <v>0.54</v>
       </c>
       <c r="I77">
-        <v>0.06</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J77">
-        <v>0.16500000000000001</v>
+        <v>18.84</v>
       </c>
       <c r="K77">
-        <v>18.84</v>
+        <v>22</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>7.54</v>
       </c>
       <c r="M77">
-        <v>7.54</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3966,7 +4041,7 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F78">
         <v>60.779599999999931</v>
@@ -3978,22 +4053,23 @@
         <v>0.4</v>
       </c>
       <c r="I78">
-        <v>0.04</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J78">
-        <v>0.11700000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="K78">
-        <v>19.53</v>
+        <v>23</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M78">
-        <v>2.4900000000000002</v>
+        <v>2.33</v>
       </c>
       <c r="N78">
-        <v>2.33</v>
+        <f t="shared" si="1"/>
+        <v>4.82</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4010,7 +4086,7 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F79">
         <v>145.43690000000001</v>
@@ -4022,22 +4098,23 @@
         <v>0.47</v>
       </c>
       <c r="I79">
-        <v>6.0999999999999999E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="J79">
-        <v>0.16300000000000001</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="K79">
-        <v>18.920000000000002</v>
+        <v>21</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>7.64</v>
       </c>
       <c r="M79">
-        <v>7.64</v>
+        <v>2.08</v>
       </c>
       <c r="N79">
-        <v>2.08</v>
+        <f t="shared" si="1"/>
+        <v>9.7199999999999989</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4054,7 +4131,7 @@
         <v>53</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F80">
         <v>28.219100000000026</v>
@@ -4066,22 +4143,23 @@
         <v>0.46</v>
       </c>
       <c r="I80">
-        <v>4.1000000000000002E-2</v>
+        <v>0.127</v>
       </c>
       <c r="J80">
-        <v>0.127</v>
+        <v>19.78</v>
       </c>
       <c r="K80">
-        <v>19.78</v>
+        <v>25</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>3.03</v>
       </c>
       <c r="M80">
-        <v>3.03</v>
+        <v>2.38</v>
       </c>
       <c r="N80">
-        <v>2.38</v>
+        <f t="shared" si="1"/>
+        <v>5.41</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4098,7 +4176,7 @@
         <v>54</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F81">
         <v>117.21779999999998</v>
@@ -4110,22 +4188,23 @@
         <v>0.42</v>
       </c>
       <c r="I81">
-        <v>5.2999999999999999E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="J81">
-        <v>0.14699999999999999</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="K81">
-        <v>19.149999999999999</v>
+        <v>18</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>4.5</v>
       </c>
       <c r="M81">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="N81">
-        <v>4.04</v>
+        <f t="shared" si="1"/>
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4142,7 +4221,7 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F82">
         <v>30.389800000000029</v>
@@ -4154,22 +4233,23 @@
         <v>0.48</v>
       </c>
       <c r="I82">
-        <v>3.4000000000000002E-2</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="J82">
-        <v>0.17899999999999999</v>
+        <v>20.11</v>
       </c>
       <c r="K82">
-        <v>20.11</v>
+        <v>37</v>
       </c>
       <c r="L82">
-        <v>37</v>
+        <v>3.56</v>
       </c>
       <c r="M82">
-        <v>3.56</v>
+        <v>1.65</v>
       </c>
       <c r="N82">
-        <v>1.65</v>
+        <f t="shared" si="1"/>
+        <v>5.21</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4186,7 +4266,7 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F83">
         <v>102.02290000000009</v>
@@ -4198,22 +4278,23 @@
         <v>0.53</v>
       </c>
       <c r="I83">
-        <v>4.5999999999999999E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J83">
-        <v>0.106</v>
+        <v>19.18</v>
       </c>
       <c r="K83">
-        <v>19.18</v>
+        <v>36</v>
       </c>
       <c r="L83">
-        <v>36</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>1.43</v>
       </c>
       <c r="N83">
-        <v>1.43</v>
+        <f t="shared" si="1"/>
+        <v>5.63</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4230,7 +4311,7 @@
         <v>53</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F84">
         <v>62.950299999999942</v>
@@ -4242,22 +4323,23 @@
         <v>0.5</v>
       </c>
       <c r="I84">
-        <v>3.5999999999999997E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J84">
-        <v>0.16400000000000001</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="K84">
-        <v>19.920000000000002</v>
+        <v>39</v>
       </c>
       <c r="L84">
-        <v>39</v>
+        <v>3.13</v>
       </c>
       <c r="M84">
-        <v>3.13</v>
+        <v>1.71</v>
       </c>
       <c r="N84">
-        <v>1.71</v>
+        <f t="shared" si="1"/>
+        <v>4.84</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4274,7 +4356,7 @@
         <v>54</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F85">
         <v>73.803799999999953</v>
@@ -4286,22 +4368,23 @@
         <v>0.6</v>
       </c>
       <c r="I85">
-        <v>0.04</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J85">
-        <v>0.10100000000000001</v>
+        <v>20.25</v>
       </c>
       <c r="K85">
-        <v>20.25</v>
+        <v>37</v>
       </c>
       <c r="L85">
-        <v>37</v>
+        <v>5.51</v>
       </c>
       <c r="M85">
-        <v>5.51</v>
+        <v>1.72</v>
       </c>
       <c r="N85">
-        <v>1.72</v>
+        <f t="shared" si="1"/>
+        <v>7.2299999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4318,7 +4401,7 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F86">
         <v>45.584700000000048</v>
@@ -4330,22 +4413,23 @@
         <v>0.86</v>
       </c>
       <c r="I86">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J86">
-        <v>0.11899999999999999</v>
+        <v>20.38</v>
       </c>
       <c r="K86">
-        <v>20.38</v>
+        <v>45</v>
       </c>
       <c r="L86">
-        <v>45</v>
+        <v>3.86</v>
       </c>
       <c r="M86">
-        <v>3.86</v>
+        <v>2.08</v>
       </c>
       <c r="N86">
-        <v>2.08</v>
+        <f t="shared" si="1"/>
+        <v>5.9399999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4362,7 +4446,7 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F87">
         <v>67.755399999999895</v>
@@ -4374,22 +4458,23 @@
         <v>0.99</v>
       </c>
       <c r="I87">
-        <v>0.05</v>
+        <v>0.151</v>
       </c>
       <c r="J87">
-        <v>0.151</v>
+        <v>19.62</v>
       </c>
       <c r="K87">
-        <v>19.62</v>
+        <v>32</v>
       </c>
       <c r="L87">
-        <v>32</v>
+        <v>3.66</v>
       </c>
       <c r="M87">
-        <v>3.66</v>
+        <v>1.51</v>
       </c>
       <c r="N87">
-        <v>1.51</v>
+        <f t="shared" si="1"/>
+        <v>5.17</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4406,7 +4491,7 @@
         <v>53</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F88">
         <v>121.55919999999998</v>
@@ -4418,22 +4503,23 @@
         <v>1.01</v>
       </c>
       <c r="I88">
-        <v>3.7999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J88">
-        <v>9.1999999999999998E-2</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="K88">
-        <v>20.239999999999998</v>
+        <v>36</v>
       </c>
       <c r="L88">
-        <v>36</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M88">
-        <v>4.0599999999999996</v>
+        <v>1.74</v>
       </c>
       <c r="N88">
-        <v>1.74</v>
+        <f t="shared" si="1"/>
+        <v>5.8</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4450,7 +4536,7 @@
         <v>54</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F89">
         <v>73.803799999999953</v>
@@ -4462,22 +4548,23 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="I89">
-        <v>0.04</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J89">
-        <v>0.10299999999999999</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="K89">
-        <v>19.850000000000001</v>
+        <v>49</v>
       </c>
       <c r="L89">
-        <v>49</v>
+        <v>4.95</v>
       </c>
       <c r="M89">
-        <v>4.95</v>
+        <v>1.47</v>
       </c>
       <c r="N89">
-        <v>1.47</v>
+        <f t="shared" si="1"/>
+        <v>6.42</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4494,7 +4581,7 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F90">
         <v>160.63179999999988</v>
@@ -4506,22 +4593,23 @@
         <v>0.46</v>
       </c>
       <c r="I90">
-        <v>4.3999999999999997E-2</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="J90">
-        <v>0.17899999999999999</v>
+        <v>20.11</v>
       </c>
       <c r="K90">
-        <v>20.11</v>
+        <v>29</v>
       </c>
       <c r="L90">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="N90">
-        <v>2.16</v>
+        <f t="shared" si="1"/>
+        <v>5.16</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4538,7 +4626,7 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F91">
         <v>124.97320000000001</v>
@@ -4550,22 +4638,23 @@
         <v>0.45</v>
       </c>
       <c r="I91">
-        <v>5.7000000000000002E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J91">
-        <v>0.106</v>
+        <v>19.18</v>
       </c>
       <c r="K91">
-        <v>19.18</v>
+        <v>29</v>
       </c>
       <c r="L91">
-        <v>29</v>
+        <v>5.72</v>
       </c>
       <c r="M91">
-        <v>5.72</v>
+        <v>4.58</v>
       </c>
       <c r="N91">
-        <v>4.58</v>
+        <f t="shared" si="1"/>
+        <v>10.3</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4582,7 +4671,7 @@
         <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F92">
         <v>69.462400000000002</v>
@@ -4594,22 +4683,23 @@
         <v>0.4</v>
       </c>
       <c r="I92">
-        <v>4.1000000000000002E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J92">
-        <v>0.16400000000000001</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="K92">
-        <v>19.920000000000002</v>
+        <v>27</v>
       </c>
       <c r="L92">
-        <v>27</v>
+        <v>1.65</v>
       </c>
       <c r="M92">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="N92">
-        <v>2.27</v>
+        <f t="shared" si="1"/>
+        <v>3.92</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4626,7 +4716,7 @@
         <v>54</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F93">
         <v>123.72989999999999</v>
@@ -4638,22 +4728,23 @@
         <v>0.4</v>
       </c>
       <c r="I93">
-        <v>0.06</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J93">
-        <v>0.10100000000000001</v>
+        <v>20.25</v>
       </c>
       <c r="K93">
-        <v>20.25</v>
+        <v>31</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>5.24</v>
       </c>
       <c r="M93">
-        <v>5.24</v>
+        <v>1.91</v>
       </c>
       <c r="N93">
-        <v>1.91</v>
+        <f t="shared" si="1"/>
+        <v>7.15</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4670,7 +4761,7 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F94">
         <v>251.80119999999999</v>
@@ -4682,22 +4773,23 @@
         <v>0.46</v>
       </c>
       <c r="I94">
-        <v>6.0000000000000001E-3</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J94">
-        <v>0.11899999999999999</v>
+        <v>20.38</v>
       </c>
       <c r="K94">
-        <v>20.38</v>
+        <v>32</v>
       </c>
       <c r="L94">
-        <v>32</v>
+        <v>1.43</v>
       </c>
       <c r="M94">
-        <v>1.43</v>
+        <v>2.23</v>
       </c>
       <c r="N94">
-        <v>2.23</v>
+        <f t="shared" si="1"/>
+        <v>3.66</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4714,7 +4806,7 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F95">
         <v>112.80249999999999</v>
@@ -4726,22 +4818,23 @@
         <v>0.47</v>
       </c>
       <c r="I95">
-        <v>0.22700000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="J95">
-        <v>0.151</v>
+        <v>19.62</v>
       </c>
       <c r="K95">
-        <v>19.62</v>
+        <v>28</v>
       </c>
       <c r="L95">
-        <v>28</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="M95">
-        <v>4.5599999999999996</v>
+        <v>2.23</v>
       </c>
       <c r="N95">
-        <v>2.23</v>
+        <f t="shared" si="1"/>
+        <v>6.7899999999999991</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4758,7 +4851,7 @@
         <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F96">
         <v>86.82799999999996</v>
@@ -4770,22 +4863,23 @@
         <v>0.44</v>
       </c>
       <c r="I96">
-        <v>0.113</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J96">
-        <v>9.1999999999999998E-2</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="K96">
-        <v>20.239999999999998</v>
+        <v>29</v>
       </c>
       <c r="L96">
-        <v>29</v>
+        <v>3.03</v>
       </c>
       <c r="M96">
-        <v>3.03</v>
+        <v>1.33</v>
       </c>
       <c r="N96">
-        <v>1.33</v>
+        <f t="shared" si="1"/>
+        <v>4.3599999999999994</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4802,7 +4896,7 @@
         <v>54</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F97">
         <v>230.09419999999997</v>
@@ -4817,19 +4911,20 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="J97">
-        <v>0.10299999999999999</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="K97">
-        <v>19.850000000000001</v>
+        <v>25</v>
       </c>
       <c r="L97">
-        <v>25</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="M97">
-        <v>17.260000000000002</v>
+        <v>18.48</v>
       </c>
       <c r="N97">
-        <v>18.48</v>
+        <f t="shared" si="1"/>
+        <v>35.74</v>
       </c>
     </row>
   </sheetData>
